--- a/AssemblyTemplate.xlsx
+++ b/AssemblyTemplate.xlsx
@@ -10,9 +10,9 @@
     <sheet name="МК" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">МК!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">МК!$A$1:$I$26</definedName>
   </definedNames>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -684,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -845,15 +845,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1014,10 +1005,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,62 +1068,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1440,7 +1433,7 @@
     <col min="2" max="2" width="13" style="18" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
@@ -1451,11 +1444,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="20"/>
       <c r="I1" s="16" t="s">
         <v>0</v>
@@ -1464,14 +1457,14 @@
     <row r="2" spans="1:16" ht="18" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
@@ -1489,11 +1482,11 @@
     </row>
     <row r="4" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="22">
         <v>0</v>
       </c>
@@ -1502,7 +1495,7 @@
       </c>
       <c r="G4" s="24">
         <f ca="1">TODAY()</f>
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="H4" s="25"/>
       <c r="O4" s="8"/>
@@ -1520,10 +1513,10 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="12"/>
       <c r="H6" s="19" t="s">
         <v>7</v>
@@ -1536,14 +1529,14 @@
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="13"/>
       <c r="H7" s="30"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
@@ -1552,10 +1545,10 @@
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="13"/>
       <c r="H8" s="30"/>
       <c r="M8" s="31"/>
@@ -1578,15 +1571,15 @@
       <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="56" t="s">
         <v>13</v>
       </c>
@@ -1596,11 +1589,11 @@
       <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="35"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
@@ -1619,698 +1612,673 @@
       <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-    </row>
-    <row r="16" spans="1:16" s="57" customFormat="1" ht="30" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-    </row>
-    <row r="17" spans="1:14" s="57" customFormat="1" ht="30" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-    </row>
-    <row r="18" spans="1:14" s="57" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-    </row>
-    <row r="22" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A22" s="93" t="str">
+    <row r="15" spans="1:16">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A16"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A17" s="78" t="str">
         <f ca="1">CELL("имяфайла")</f>
         <v>D:\Users\User\Documents\KompasDXF\bin\Debug\[AssemblyTemplate.xlsx]МК</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="22.9" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="1" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="126.75" customHeight="1">
-      <c r="A24" s="11">
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="126.75" customHeight="1">
+      <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C19" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="38"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="11">
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B20" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:14" ht="52.5" customHeight="1">
-      <c r="A26" s="11">
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="52.5" customHeight="1">
+      <c r="A21" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B21" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C21" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="11">
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="A22" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A28" s="11">
+      <c r="E22" s="92"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" ht="53.25" customHeight="1">
+      <c r="A23" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B23" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="18"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="86" t="s">
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="18"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="15">
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="15">
         <f ca="1">YEAR(G4)</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="87" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="17"/>
+      <c r="B30" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="B37" s="42" t="s">
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C32" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D32" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E32" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F32" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G32" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H32" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I32" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="37" t="s">
+      <c r="J32" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K32" s="37" t="s">
         <v>41</v>
       </c>
+      <c r="L32" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="L37" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="B38" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>50</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
       <c r="K38" s="48" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="L38" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
       <c r="B39" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>53</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C39" s="50"/>
       <c r="D39" s="51" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>56</v>
+        <v>102</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="50" t="s">
-        <v>28</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
       <c r="K39" s="48" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="L39" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
       <c r="B40" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>62</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C40" s="50"/>
       <c r="D40" s="51" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>66</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G40" s="50"/>
       <c r="H40" s="50" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="I40" s="50"/>
-      <c r="J40" s="50" t="s">
-        <v>68</v>
-      </c>
+      <c r="J40" s="50"/>
       <c r="K40" s="48" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="L40" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
       <c r="B41" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>74</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G41" s="50"/>
       <c r="H41" s="50" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="I41" s="50"/>
-      <c r="J41" s="50" t="s">
-        <v>78</v>
-      </c>
+      <c r="J41" s="50"/>
       <c r="K41" s="48" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="L41" s="44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
       <c r="B42" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
       <c r="F42" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>86</v>
+        <v>119</v>
+      </c>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="I42" s="50"/>
-      <c r="J42" s="50" t="s">
-        <v>87</v>
-      </c>
+      <c r="J42" s="50"/>
       <c r="K42" s="48" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="L42" s="44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
       <c r="B43" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>93</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
       <c r="F43" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>95</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G43" s="50"/>
       <c r="H43" s="50" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="I43" s="50"/>
       <c r="J43" s="50"/>
       <c r="K43" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L43" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="B44" s="49" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="L43" s="44"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="C44" s="50"/>
-      <c r="D44" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>101</v>
-      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>7</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G44" s="50"/>
       <c r="H44" s="50" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
       <c r="K44" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="L44" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="B45" s="49" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="L44" s="44"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="C45" s="50"/>
-      <c r="D45" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>109</v>
-      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="50"/>
       <c r="H45" s="50" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="I45" s="50"/>
       <c r="J45" s="50"/>
       <c r="K45" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="L45" s="44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="49" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="L45" s="44"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="53" t="s">
+        <v>131</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
-      <c r="F46" s="50" t="s">
-        <v>114</v>
-      </c>
+      <c r="F46" s="50"/>
       <c r="G46" s="50"/>
-      <c r="H46" s="50" t="s">
-        <v>115</v>
-      </c>
+      <c r="H46" s="50"/>
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
       <c r="K46" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="L46" s="44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="49" t="s">
-        <v>118</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L46" s="44"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="53"/>
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
-      <c r="F47" s="50" t="s">
-        <v>119</v>
-      </c>
+      <c r="F47" s="50"/>
       <c r="G47" s="50"/>
-      <c r="H47" s="50" t="s">
-        <v>120</v>
-      </c>
+      <c r="H47" s="50"/>
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
-      <c r="K47" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="L47" s="44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="B48" s="49" t="s">
-        <v>123</v>
-      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="44"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="53"/>
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
-      <c r="F48" s="50" t="s">
-        <v>119</v>
-      </c>
+      <c r="F48" s="50"/>
       <c r="G48" s="50"/>
-      <c r="H48" s="50" t="s">
-        <v>124</v>
-      </c>
+      <c r="H48" s="50"/>
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
-      <c r="K48" s="48" t="s">
-        <v>125</v>
-      </c>
+      <c r="K48" s="48"/>
       <c r="L48" s="44"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="48" t="s">
-        <v>101</v>
-      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="48"/>
       <c r="L49" s="44"/>
     </row>
-    <row r="50" spans="2:12">
-      <c r="B50" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="L50" s="44"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51" s="44"/>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="53"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="44"/>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="53"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="44"/>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="44"/>
-    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B35:J36"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A22:I22"/>
+  <mergeCells count="24">
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B30:J31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="E7:F7"/>
@@ -2324,31 +2292,28 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E6:F6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations disablePrompts="1" count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>$K$33:$K$49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>$E$33:$E$42</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:E22">
+      <formula1>$J$33:$J$37</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
       <formula1>$O$5:$O$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C18">
-      <formula1>$D$38:$D$45</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>$G$38:$G$44</formula1>
+      <formula1>$G$33:$G$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P8">
       <formula1>$P$9:$P$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>$K$38:$K$54</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>$E$38:$E$47</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:E27">
-      <formula1>$J$38:$J$42</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" display="\\LASER-PC\Users\Public\ОБНОВЛЕНИЯ\РАСКРОЙ ОБЩАЯ"/>
+    <hyperlink ref="A17" r:id="rId1" display="\\LASER-PC\Users\Public\ОБНОВЛЕНИЯ\РАСКРОЙ ОБЩАЯ"/>
   </hyperlinks>
   <pageMargins left="0.17" right="0.17" top="0.4" bottom="0.19" header="0.5" footer="0.21"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/AssemblyTemplate.xlsx
+++ b/AssemblyTemplate.xlsx
@@ -108,30 +108,6 @@
     <t>Метод 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Передать на сборку :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-      </rPr>
-      <t>АЛ.00.01.500.553.038.00.00 СБ - 
-Ниша панели
-(и все её модификации)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">  Детали в количестве ________ штук отгружены на СГП  "_______"   ______________</t>
   </si>
   <si>
@@ -487,12 +463,15 @@
   <si>
     <t>№ Деталей</t>
   </si>
+  <si>
+    <t>Передать на сборку :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -620,13 +599,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Cyr"/>
@@ -853,7 +825,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -887,9 +859,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -943,9 +912,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,12 +977,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,12 +1016,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1062,16 +1025,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1092,8 +1052,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,11 +1076,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1424,13 +1390,13 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13" style="17" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
@@ -1444,27 +1410,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="20"/>
-      <c r="I1" s="16" t="s">
+      <c r="A1" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="19"/>
+      <c r="I1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
@@ -1482,43 +1448,43 @@
     </row>
     <row r="4" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="22">
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f ca="1">TODAY()</f>
-        <v>45569</v>
-      </c>
-      <c r="H4" s="25"/>
+        <v>45572</v>
+      </c>
+      <c r="H4" s="24"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:16" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="69" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1527,143 +1493,147 @@
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="69" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="30"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="H7" s="29"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="69" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="56" t="s">
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="35"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="59">
+        <v>1</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="17"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1">
       <c r="A16"/>
       <c r="B16"/>
     </row>
     <row r="17" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A17" s="78" t="str">
+      <c r="A17" s="74" t="str">
         <f ca="1">CELL("имяфайла")</f>
         <v>D:\Users\User\Documents\KompasDXF\bin\Debug\[AssemblyTemplate.xlsx]МК</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="22.9" customHeight="1">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="22.9" hidden="1" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1676,594 +1646,594 @@
       <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="126.75" customHeight="1">
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="126.75" hidden="1" customHeight="1">
       <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:14" ht="52.5" customHeight="1">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" ht="52.5" hidden="1" customHeight="1">
       <c r="A21" s="11">
         <v>3</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A22" s="11">
         <v>4</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="92"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" ht="53.25" customHeight="1">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" ht="53.25" hidden="1" customHeight="1">
       <c r="A23" s="11">
         <v>5</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
+      <c r="B23" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="18"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="15">
+      <c r="J23" s="17"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="25" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A25" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92">
         <f ca="1">YEAR(G4)</f>
         <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="17"/>
-      <c r="B30" s="87" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="B32" s="42" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="D32" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="E32" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="F32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="G32" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="H32" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="I32" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="J32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="K32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="L32" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="44" t="s">
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="45" t="s">
+      <c r="C33" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="D33" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="E33" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="46" t="s">
+      <c r="G33" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="H33" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="I33" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="J33" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="K33" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="44" t="s">
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="D34" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="50" t="s">
+      <c r="F34" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="G34" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="H34" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="I34" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="J34" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="48" t="s">
+      <c r="L34" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="44" t="s">
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="47" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="D35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="E35" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="F35" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="G35" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="H35" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="I35" s="48"/>
+      <c r="J35" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50" t="s">
+      <c r="K35" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="48" t="s">
+      <c r="L35" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="44" t="s">
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="49" t="s">
+      <c r="C36" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="E36" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="F36" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="G36" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="H36" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="I36" s="48"/>
+      <c r="J36" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50" t="s">
+      <c r="K36" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="48" t="s">
+      <c r="L36" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="L36" s="44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="E37" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="F37" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="G37" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="H37" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="I37" s="48"/>
+      <c r="J37" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50" t="s">
+      <c r="K37" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="48" t="s">
+      <c r="L37" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="L37" s="44" t="s">
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="47" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="49" t="s">
+      <c r="C38" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="D38" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="E38" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="F38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="G38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="H38" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="48" t="s">
+      <c r="L38" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="L38" s="44" t="s">
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="47" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="49" t="s">
+      <c r="C39" s="48"/>
+      <c r="D39" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51" t="s">
+      <c r="E39" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="F39" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="G39" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="50" t="s">
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="48" t="s">
+      <c r="L39" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="44" t="s">
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="47" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="49" t="s">
+      <c r="C40" s="48"/>
+      <c r="D40" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51" t="s">
+      <c r="E40" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="F40" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="G40" s="48"/>
+      <c r="H40" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50" t="s">
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="48" t="s">
+      <c r="L40" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="L40" s="44" t="s">
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="47" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="49" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50" t="s">
+      <c r="G41" s="48"/>
+      <c r="H41" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50" t="s">
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="48" t="s">
+      <c r="L41" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="L41" s="44" t="s">
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="47" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="49" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50" t="s">
+      <c r="G42" s="48"/>
+      <c r="H42" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50" t="s">
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="48" t="s">
+      <c r="L42" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="L42" s="44" t="s">
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="47" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="49" t="s">
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50" t="s">
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="48" t="s">
+      <c r="L43" s="42"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="L43" s="44"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="53" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50" t="s">
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L44" s="42"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" s="44"/>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="53" t="s">
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50" t="s">
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="48" t="s">
+      <c r="L45" s="42"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="L45" s="44"/>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="53" t="s">
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="L46" s="44"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="53"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="44"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="53"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="44"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="44"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2280,12 +2250,12 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
